--- a/每週賣出總表.xlsx
+++ b/每週賣出總表.xlsx
@@ -37,37 +37,40 @@
     <t>空單回補</t>
   </si>
   <si>
+    <t>1789</t>
+  </si>
+  <si>
     <t>2313</t>
   </si>
   <si>
     <t>3303</t>
   </si>
   <si>
+    <t>5388</t>
+  </si>
+  <si>
+    <t>6409</t>
+  </si>
+  <si>
     <t>3092</t>
   </si>
   <si>
+    <t>3498</t>
+  </si>
+  <si>
     <t>4760</t>
   </si>
   <si>
     <t>5215</t>
   </si>
   <si>
-    <t>5474</t>
-  </si>
-  <si>
     <t>6230</t>
   </si>
   <si>
     <t>4557</t>
   </si>
   <si>
-    <t>1503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>3023</t>
+    <t>2515</t>
   </si>
   <si>
     <t>6283</t>
@@ -85,7 +88,7 @@
     <t>3016</t>
   </si>
   <si>
-    <t>3217</t>
+    <t>3078</t>
   </si>
   <si>
     <t>3260</t>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>6509</t>
-  </si>
-  <si>
-    <t>8255</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,16 +504,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,52 +524,55 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -577,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -585,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -593,7 +596,7 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -601,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -609,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -617,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -625,14 +628,6 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
         <v>31</v>
       </c>
     </row>
